--- a/medicine/Enfance/Frank_King_(écrivain)/Frank_King_(écrivain).xlsx
+++ b/medicine/Enfance/Frank_King_(écrivain)/Frank_King_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Frank_King_(%C3%A9crivain)</t>
+          <t>Frank_King_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank King, né à Halifax, Yorkshire de l'Ouest, en 1892, et décédé dans la même ville le 3 décembre 1958, est un auteur britannique de plusieurs romans policiers et fantastiques. Il a également publié trois titres sous le pseudonyme de Clive Conrad.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Frank_King_(%C3%A9crivain)</t>
+          <t>Frank_King_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît dans une famille qui, depuis trois générations, œuvre dans le monde de l’imprimerie et de l’édition. Son père, Franz King sénior, est propriétaire de quelques librairies. Quant à Frank King junior, il fait des études de médecine à l’université de Leeds et obtient son diplôme en 1914. L’année suivante, il épouse Annie Naylor et sert dans l’armée en Égypte et au Moyen-Orient pendant la Première Guerre mondiale. À la fin du conflit, il ouvre un cabinet de consultation sur Rhodes Street dans sa ville natale de Halifax.
 En marge de ses activités professionnelles, il amorce en 1924 une carrière littéraire avec la publication de Miriam of the Moorland, un thriller anglais. Dès le livre suivant, il donne un récit fantastique, Terror at Straups House, puis il verse dans le roman d’horreur avec The Ghoul (1928), qui rencontre un immense succès et connaîtra deux adaptations cinématographiques. Ce succès rend son nom célèbre et il est très sollicité par les directeurs de magazines pour produire des nouvelles. Tout en continuant dans la veine du fantastique macabre, il aborde aussi la littérature policière où ses connaissances en toxicologie lui sont fort utiles. Il fait paraître d’abord des nouvelles, écrit aussi quelques pièces policières, en collaboration avec Leonard J. Hines, puis s'attaque au roman dès 1936 avec la série des quelque vingt enquêtes du détective privé londonien Clive Conrad, surnommé le Dormouse (littéralement : le loir), en raison de sa nonchalance et de sa propension à respecter la loi du moindre effort. Le succès immédiat du Dormouse, personnage singulier s'il en est, permet bientôt au Dr Frank King de délaisser la pratique médicale pour se consacrer entièrement à l’écriture.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Frank_King_(%C3%A9crivain)</t>
+          <t>Frank_King_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Clive Dormouse Conrad
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Clive Dormouse Conrad</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Enter for the Dormouse (1936)
 The Dormouse Undertaker (1937)
 The Dormouse Has Nine Lives (1938)
@@ -570,10 +593,88 @@
 The Two Who Talked (1958)
 That Charming Crook (1958)
 The Case of the Frightened Brother (1959)
-Série Inspecteur Gloom
-The Case of the Painted Girl (1932)
-The Case of the Vanishing Artist (1956) Publié en français sous le titre Le peintre a disparu, Paris, Librairie des Champs-Élysées, Le Masque no 590, 1957
-Autres romans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frank_King_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_King_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Inspecteur Gloom</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Case of the Painted Girl (1932)
+The Case of the Vanishing Artist (1956) Publié en français sous le titre Le peintre a disparu, Paris, Librairie des Champs-Élysées, Le Masque no 590, 1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frank_King_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_King_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Miriam of the Moorland (1924)
 Terror at Straups House (1927)
 The Ghoul (1928)
@@ -591,22 +692,205 @@
 Death of a Cloven Hoof (1951) Publié en français sous le titre Un maître chanteur, Paris, Librairie des Champs-Élysées, Le Masque no 469, 1954
 Death Changes His Mind (1953) Publié en français sous le titre Tel est pris..., Paris, Librairie des Champs-Élysées, Le Masque no 506, 1955
 Only Half the Doctor Died (1954) Publié en français sous le titre Allô ! docteur Burton ?, Paris, Librairie des Champs-Élysées, Le Masque no 521, 1955
-Romans signés Clive Conrad
-There Was a Little Man (1948)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frank_King_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_King_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans signés Clive Conrad</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>There Was a Little Man (1948)
 Money’s Worth of Murder (1949)
-The Crime of His Life (1951)
-Roman de littérature d’enfance et de jeunesse
-The Menace of X (s.d.)
-Théâtre
-Fire of Vanity (1930), en collaboration avec Leonard J. Hines
+The Crime of His Life (1951)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frank_King_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_King_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Roman de littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Menace of X (s.d.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Frank_King_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_King_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fire of Vanity (1930), en collaboration avec Leonard J. Hines
 These Things Shall Be (1931), en collaboration avec Leonard J. Hines
 Arrow by Day (1931), en collaboration avec Leonard J. Hines
 Tusitala (1934), en collaboration avec Leonard J. Hines
-White Line (1934), en collaboration avec Leonard J. Hines
-Recueil de nouvelles
-Molly on the Spot (1940)
-Nouvelles
-Série Molly O’Rourke
+White Line (1934), en collaboration avec Leonard J. Hines</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Frank_King_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_King_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Molly on the Spot (1940)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Frank_King_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_King_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Molly O’Rourke</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Mr. Bodger’s Second Wife (1936)
 The Ungrammatical Clue (1936)
 S.O.S. Farmery (1936)
@@ -628,7 +912,47 @@
 Sweet Repose (1940)
 Public Enemies (1940)
 Lucky Brake (1940)
-Série Frankie Leybrun
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Frank_King_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_King_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Frankie Leybrun</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 In a Miner Key (1937)
 Thanks to Frankie (1938)
 The Hanging Scarf Mystery (1938)
@@ -639,7 +963,47 @@
 The 21 Club (1939)
 Air Male (1940)
 Birds of Passage (1940)
-Autres nouvelles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Frank_King_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_King_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Autres nouvelles</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Freddie’s a Fool! (1928)
 The End of Lanford Holt (1928)
 Blue Water (1928)
@@ -669,40 +1033,111 @@
 Thirty Thousand Kisses (1938)
 Hand of Glory (1947)
 Eyes Right Was Wrong (1948)
-Autre publication
-Cagliostro. The Last of the Sorcerers: a Portrait (1948)
-Adaptations
-1933 : Le Fantôme vivant (The Ghoul) de T. Hayes Hunter, d’après le roman éponyme, avec Boris Karloff, Cedric Hardwicke et Ernest Thesiger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Frank_King_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_King_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cagliostro. The Last of the Sorcerers: a Portrait (1948)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Frank_King_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_King_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1933 : Le Fantôme vivant (The Ghoul) de T. Hayes Hunter, d’après le roman éponyme, avec Boris Karloff, Cedric Hardwicke et Ernest Thesiger.
 1952 : Death of an Angel (it) de Charles Saunders, d’après la pièce homonyme, avec Patrick Barr, Jane Baxter et Julie Somers.
 1961 : What a Carve Up ! (en) de Pat Jackson, d’après le roman The Ghoul, avec Sid James, Kenneth Connor (en) et Donald Pleasence.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Frank_King_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Frank_King_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Frank_King_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_King_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 265.</t>
         </is>
